--- a/data_excel/856.xlsx
+++ b/data_excel/856.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>草原</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>母獅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,15 +199,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -509,7 +529,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,12 +554,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
